--- a/contact-deal.xlsx
+++ b/contact-deal.xlsx
@@ -443,630 +443,630 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>referral_id</t>
+          <t>days_to_close</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>engagements_last_meeting_booked_medium</t>
+          <t>num_notes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>notes_next_activity_date</t>
+          <t>hs_notes_next_activity_type</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bank_s_</t>
+          <t>hs_shared_team_ids</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hs_all_team_ids</t>
+          <t>hubspot_owner_id</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cb_subcst_activated_at</t>
+          <t>cb_nextbillingat</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hs_notes_next_activity_type</t>
+          <t>hs_notes_next_activity</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_notification_unfollowers</t>
+          <t>closedate</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_2</t>
+          <t>hs_createdate</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>notes_last_contacted</t>
+          <t>pain_points</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hs_shared_user_ids</t>
+          <t>cb_subcst_cancel_reason</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hs_source_object_id</t>
+          <t>cb_subcst_plan_unit_price</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hubspot_owner_assigneddate</t>
+          <t>hs_updated_by_user_id</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hs_sales_email_last_replied</t>
+          <t>number_of_employees</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>engagements_last_meeting_booked_campaign</t>
+          <t>hs_merged_object_ids</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hs_object_source_user_id</t>
+          <t>hs_lastmodifieddate</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>accounting_software</t>
+          <t>hs_object_source</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>closedate</t>
+          <t>cb_subscriptionmrr</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cb_subcst_cancelled_at</t>
+          <t>credit_card_s_</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t_shirt_size</t>
+          <t>cb_subcst_started_at</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hs_all_owner_ids</t>
+          <t>hs_object_source_detail_3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hs_object_id</t>
+          <t>hs_object_source_label</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hs_was_imported</t>
+          <t>engagements_last_meeting_booked</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cb_subcst_start_date</t>
+          <t>cb_currencycode</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hs_createdate</t>
+          <t>cb_planquantity</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>days_to_close</t>
+          <t>engagements_last_meeting_booked_source</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hs_created_by_user_id</t>
+          <t>hs_all_team_ids</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_3</t>
+          <t>cb_subcst_cancelled_at</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cb_subcst_created_at</t>
+          <t>business_model</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cb_subcst_current_term_start</t>
+          <t>cb_duesince</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>number_of_employees</t>
+          <t>hs_notes_last_activity</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sales_engineer</t>
+          <t>cb_subcst_current_term_start</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cb_dueinvoicescount</t>
+          <t>accounts_payable_systems</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cb_product</t>
+          <t>payroll_provider</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cb_subcst_cancel_reason</t>
+          <t>hs_was_imported</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cb_subscriptionid</t>
+          <t>notes_last_updated</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>engagements_last_meeting_booked</t>
+          <t>cb_subcst_activated_at</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hs_lastmodifieddate</t>
+          <t>referral_id</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hs_analytics_source_data_1</t>
+          <t>bank_s_</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cb_subcst_billing_period</t>
+          <t>hs_user_ids_of_all_owners</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cb_nextbillingat</t>
+          <t>revenue_type</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hs_unique_creation_key</t>
+          <t>cb_subcst_billing_period_unit</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hs_analytics_source</t>
+          <t>hs_user_ids_of_all_notification_followers</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_1</t>
+          <t>hs_created_by_user_id</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cb_duesince</t>
+          <t>engagements_last_meeting_booked_medium</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>hubspot_owner_id</t>
+          <t>cb_remainingbillingcycles</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>hs_all_accessible_team_ids</t>
+          <t>cb_subcst_plan_amount</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>notes_last_updated</t>
+          <t>hs_unique_creation_key</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>revenue_type</t>
+          <t>t_shirt_size</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hs_all_assigned_business_unit_ids</t>
+          <t>hubspot_team_id</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cb_ponumber</t>
+          <t>hs_latest_meeting_activity</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>cb_subcst_created_at</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hs_shared_team_ids</t>
+          <t>hs_read_only</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cb_currencycode</t>
+          <t>createdate</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>accounts_payable_systems</t>
+          <t>hs_shared_user_ids</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hs_pinned_engagement_id</t>
+          <t>hs_object_source_id</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_owners</t>
+          <t>notes_last_contacted</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hs_updated_by_user_id</t>
+          <t>hs_source_object_id</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hs_notes_last_activity</t>
+          <t>hs_all_assigned_business_unit_ids</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>credit_card_s_</t>
+          <t>hs_analytics_source_data_2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>hs_object_source</t>
+          <t>hs_all_accessible_team_ids</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cb_planquantity</t>
+          <t>hs_object_id</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hs_latest_meeting_activity</t>
+          <t>hs_user_ids_of_all_notification_unfollowers</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cb_subcst_plan_amount</t>
+          <t>cb_ponumber</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>hs_object_source_label</t>
+          <t>cb_subcst_plan_free_quantity</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pain_points</t>
+          <t>is_this_a_us_entity_with_us_bank_accounts_</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>engagements_last_meeting_booked_source</t>
+          <t>notes_next_activity_date</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>cb_setupfee</t>
+          <t>cb_product</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>cb_nextbillingamount</t>
+          <t>num_contacted_notes</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>payroll_provider</t>
+          <t>hs_all_owner_ids</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hs_notes_next_activity</t>
+          <t>cb_subcst_billing_period</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>createdate</t>
+          <t>sales_engineer</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>num_contacted_notes</t>
+          <t>hs_object_source_detail_1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cb_subscriptionmrr</t>
+          <t>hs_object_source_user_id</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hubspot_team_id</t>
+          <t>cb_nextbillingamount</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_notification_followers</t>
+          <t>cb_subscriptionid</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cb_subcst_plan_unit_price</t>
+          <t>industry</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>num_notes</t>
+          <t>cb_subcst_current_term_end</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hs_object_source_id</t>
+          <t>cb_dueinvoicescount</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>business_model</t>
+          <t>hs_analytics_source</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hs_analytics_source_data_2</t>
+          <t>hs_analytics_source_data_1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cb_subcst_plan_free_quantity</t>
+          <t>cb_setupfee</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cb_subcst_started_at</t>
+          <t>cb_subcst_start_date</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>hs_read_only</t>
+          <t>engagements_last_meeting_booked_campaign</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cb_subcst_billing_period_unit</t>
+          <t>cb_totaldues</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cb_totaldues</t>
+          <t>hs_object_source_detail_2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>hs_merged_object_ids</t>
+          <t>accounting_software</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cb_remainingbillingcycles</t>
+          <t>hubspot_owner_assigneddate</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>is_this_a_us_entity_with_us_bank_accounts_</t>
+          <t>hs_pinned_engagement_id</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cb_subcst_current_term_end</t>
+          <t>hs_sales_email_last_replied</t>
         </is>
       </c>
     </row>

--- a/contact-deal.xlsx
+++ b/contact-deal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,455 +443,455 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>days_to_close</t>
+          <t>hubspot_owner_assigneddate</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>num_notes</t>
+          <t>hs_createdate</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hs_notes_next_activity_type</t>
+          <t>hs_merged_object_ids</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hs_shared_team_ids</t>
+          <t>cb_subcst_plan_amount</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hubspot_owner_id</t>
+          <t>cb_subscriptionid</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cb_nextbillingat</t>
+          <t>cb_ponumber</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hs_notes_next_activity</t>
+          <t>cb_setupfee</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>closedate</t>
+          <t>days_to_close</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hs_createdate</t>
+          <t>hs_sales_email_last_replied</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pain_points</t>
+          <t>hs_notes_last_activity</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cb_subcst_cancel_reason</t>
+          <t>hs_was_imported</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cb_subcst_plan_unit_price</t>
+          <t>cb_nextbillingamount</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hs_updated_by_user_id</t>
+          <t>notes_last_contacted</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>number_of_employees</t>
+          <t>hs_source_object_id</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hs_merged_object_ids</t>
+          <t>engagements_last_meeting_booked</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hs_lastmodifieddate</t>
+          <t>notes_next_activity_date</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hs_object_source</t>
+          <t>cb_remainingbillingcycles</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cb_subscriptionmrr</t>
+          <t>notes_last_updated</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>credit_card_s_</t>
+          <t>hs_notes_next_activity_type</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cb_subcst_started_at</t>
+          <t>hs_unique_creation_key</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_3</t>
+          <t>cb_subcst_started_at</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hs_object_source_label</t>
+          <t>hs_all_accessible_team_ids</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>engagements_last_meeting_booked</t>
+          <t>hs_object_source_id</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cb_currencycode</t>
+          <t>cb_subcst_cancelled_at</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cb_planquantity</t>
+          <t>hs_object_source_label</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>engagements_last_meeting_booked_source</t>
+          <t>createdate</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hs_all_team_ids</t>
+          <t>cb_totaldues</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cb_subcst_cancelled_at</t>
+          <t>hs_read_only</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>business_model</t>
+          <t>hubspot_owner_id</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cb_duesince</t>
+          <t>cb_subcst_activated_at</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hs_notes_last_activity</t>
+          <t>cb_nextbillingat</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cb_subcst_current_term_start</t>
+          <t>cb_subscriptionmrr</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>accounts_payable_systems</t>
+          <t>hs_all_assigned_business_unit_ids</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>payroll_provider</t>
+          <t>hs_all_owner_ids</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>hs_was_imported</t>
+          <t>revenue_type</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>notes_last_updated</t>
+          <t>hs_pinned_engagement_id</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cb_subcst_activated_at</t>
+          <t>cb_subcst_billing_period_unit</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>referral_id</t>
+          <t>hubspot_team_id</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bank_s_</t>
+          <t>cb_subcst_current_term_start</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_owners</t>
+          <t>engagements_last_meeting_booked_source</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>revenue_type</t>
+          <t>referral_id</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cb_subcst_billing_period_unit</t>
+          <t>hs_shared_user_ids</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_notification_followers</t>
+          <t>cb_subcst_current_term_end</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hs_created_by_user_id</t>
+          <t>hs_lastmodifieddate</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>engagements_last_meeting_booked_medium</t>
+          <t>pain_points</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cb_remainingbillingcycles</t>
+          <t>engagements_last_meeting_booked_medium</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cb_subcst_plan_amount</t>
+          <t>hs_object_source</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hs_unique_creation_key</t>
+          <t>hs_object_id</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t_shirt_size</t>
+          <t>hs_analytics_source_data_1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hubspot_team_id</t>
+          <t>cb_dueinvoicescount</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hs_latest_meeting_activity</t>
+          <t>hs_object_source_detail_1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cb_subcst_created_at</t>
+          <t>cb_subcst_plan_free_quantity</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hs_read_only</t>
+          <t>closedate</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>createdate</t>
+          <t>cb_duesince</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hs_shared_user_ids</t>
+          <t>hs_object_source_detail_2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hs_object_source_id</t>
+          <t>hs_latest_meeting_activity</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>notes_last_contacted</t>
+          <t>cb_subcst_start_date</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hs_source_object_id</t>
+          <t>num_contacted_notes</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hs_all_assigned_business_unit_ids</t>
+          <t>cb_planquantity</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>hs_analytics_source_data_2</t>
+          <t>cb_product</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>hs_all_accessible_team_ids</t>
+          <t>hs_all_team_ids</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>hs_object_id</t>
+          <t>hs_notes_next_activity</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_notification_unfollowers</t>
+          <t>num_notes</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cb_ponumber</t>
+          <t>cb_subcst_cancel_reason</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cb_subcst_plan_free_quantity</t>
+          <t>cb_subcst_plan_unit_price</t>
         </is>
       </c>
     </row>
@@ -905,168 +905,98 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>notes_next_activity_date</t>
+          <t>hs_object_source_detail_3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>cb_product</t>
+          <t>hs_created_by_user_id</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>num_contacted_notes</t>
+          <t>hs_analytics_source</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>hs_all_owner_ids</t>
+          <t>cb_subcst_created_at</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cb_subcst_billing_period</t>
+          <t>hs_analytics_source_data_2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sales_engineer</t>
+          <t>engagements_last_meeting_booked_campaign</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_1</t>
+          <t>hs_shared_team_ids</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>hs_object_source_user_id</t>
+          <t>cb_currencycode</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>cb_nextbillingamount</t>
+          <t>hs_updated_by_user_id</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cb_subscriptionid</t>
+          <t>hs_object_source_user_id</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>hs_user_ids_of_all_owners</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cb_subcst_current_term_end</t>
+          <t>cb_subcst_billing_period</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cb_dueinvoicescount</t>
+          <t>hs_user_ids_of_all_notification_followers</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hs_analytics_source</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>hs_analytics_source_data_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>cb_setupfee</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>cb_subcst_start_date</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>engagements_last_meeting_booked_campaign</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>cb_totaldues</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>hs_object_source_detail_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>accounting_software</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>hubspot_owner_assigneddate</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>hs_pinned_engagement_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>hs_sales_email_last_replied</t>
+          <t>hs_user_ids_of_all_notification_unfollowers</t>
         </is>
       </c>
     </row>
